--- a/phaseI_data/classical_benchmark_tables.xlsx
+++ b/phaseI_data/classical_benchmark_tables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jgonthier/Documents/Zapata/Projects/thermo_comb/bp-combustion-project/Phase-I/PhaseI_paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://zapco-my.sharepoint.com/personal/yanbing_zhou_zapatacomputing_com/Documents/code/distr/madtequila-benchmark/phaseI_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28E0E4F4-D164-0B48-B703-2E8A23BA19C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{28E0E4F4-D164-0B48-B703-2E8A23BA19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2F3EA88-5A39-9141-989C-5B73B6AA2B4B}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{F80ABAAB-FB52-5143-812D-4193B9E0BDB2}"/>
+    <workbookView xWindow="720" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{F80ABAAB-FB52-5143-812D-4193B9E0BDB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <definedName name="tmp" localSheetId="0">Sheet1!$A$1:$J$8</definedName>
     <definedName name="tmp_1" localSheetId="0">Sheet1!$A$11:$J$21</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -40,7 +41,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{9E05DE55-3944-7443-8E7F-0A02BC808E93}" name="tmp" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jgonthier/Documents/Zapata/Projects/thermo_comb/bp-combustion-project/Phase-I/PhaseI_paper/tmp.txt" delimiter="&amp;">
+    <textPr sourceFile="/Users/jgonthier/Documents/Zapata/Projects/thermo_comb/bp-combustion-project/Phase-I/PhaseI_paper/tmp.txt" delimiter="&amp;">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -56,7 +57,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{5F318736-707F-7C43-9757-EB8AFC1D7193}" name="tmp1" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="10000" sourceFile="/Users/jgonthier/Documents/Zapata/Projects/thermo_comb/bp-combustion-project/Phase-I/PhaseI_paper/tmp.txt" delimiter="&amp;">
+    <textPr sourceFile="/Users/jgonthier/Documents/Zapata/Projects/thermo_comb/bp-combustion-project/Phase-I/PhaseI_paper/tmp.txt" delimiter="&amp;">
       <textFields count="10">
         <textField/>
         <textField/>
@@ -523,13 +524,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B13E0F5B-64E3-474A-AEF3-8B155DC6FD1F}">
   <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
     <col min="2" max="2" width="8.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
@@ -1062,39 +1063,39 @@
         <v>21</v>
       </c>
       <c r="B28">
-        <f>B5 + B13 + B15 + B17 + B19 + B21</f>
+        <f t="shared" ref="B28:J28" si="4">B5 + B13 + B15 + B17 + B19 + B21</f>
         <v>-805.25</v>
       </c>
       <c r="C28">
-        <f>C5 + C13 + C15 + C17 + C19 + C21</f>
+        <f t="shared" si="4"/>
         <v>-678.4799999999999</v>
       </c>
       <c r="D28">
-        <f>D5 + D13 + D15 + D17 + D19 + D21</f>
+        <f t="shared" si="4"/>
         <v>-1434.2399999999998</v>
       </c>
       <c r="E28">
-        <f>E5 + E13 + E15 + E17 + E19 + E21</f>
+        <f t="shared" si="4"/>
         <v>-1327.46</v>
       </c>
       <c r="F28">
-        <f>F5 + F13 + F15 + F17 + F19 + F21</f>
+        <f t="shared" si="4"/>
         <v>-1261.8100000000002</v>
       </c>
       <c r="G28">
-        <f>G5 + G13 + G15 + G17 + G19 + G21</f>
+        <f t="shared" si="4"/>
         <v>-1281.78</v>
       </c>
       <c r="H28">
-        <f>H5 + H13 + H15 + H17 + H19 + H21</f>
+        <f t="shared" si="4"/>
         <v>-2048.5500000000002</v>
       </c>
       <c r="I28">
-        <f>I5 + I13 + I15 + I17 + I19 + I21</f>
+        <f t="shared" si="4"/>
         <v>-1932.31</v>
       </c>
       <c r="J28">
-        <f>J5 + J13 + J15 + J17 + J19 + J21</f>
+        <f t="shared" si="4"/>
         <v>-1856.7099999999996</v>
       </c>
     </row>
@@ -1107,35 +1108,35 @@
         <v>-2.75</v>
       </c>
       <c r="C29">
-        <f t="shared" ref="C29:J29" si="4">C28-C8</f>
+        <f t="shared" ref="C29:J29" si="5">C28-C8</f>
         <v>-2.3799999999998818</v>
       </c>
       <c r="D29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.8399999999996908</v>
       </c>
       <c r="E29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.4600000000000364</v>
       </c>
       <c r="F29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-5.6100000000001273</v>
       </c>
       <c r="G29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.1800000000000637</v>
       </c>
       <c r="H29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-4.6500000000000909</v>
       </c>
       <c r="I29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-6.4099999999998545</v>
       </c>
       <c r="J29">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>-7.7099999999995816</v>
       </c>
       <c r="K29" t="s">
@@ -1151,35 +1152,35 @@
         <v>7.5625</v>
       </c>
       <c r="C30">
-        <f t="shared" ref="C30:J30" si="5">C29^2</f>
+        <f t="shared" ref="C30:J30" si="6">C29^2</f>
         <v>5.6643999999994374</v>
       </c>
       <c r="D30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>34.105599999996386</v>
       </c>
       <c r="E30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.891600000000324</v>
       </c>
       <c r="F30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>31.472100000001429</v>
       </c>
       <c r="G30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>17.472400000000533</v>
       </c>
       <c r="H30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>21.622500000000844</v>
       </c>
       <c r="I30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>41.088099999998136</v>
       </c>
       <c r="J30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>59.444099999993547</v>
       </c>
       <c r="K30">
@@ -1196,35 +1197,35 @@
         <v>3.82</v>
       </c>
       <c r="C33">
-        <f t="shared" ref="C33:J33" si="6">C13+C15+C17</f>
+        <f t="shared" ref="C33:J33" si="7">C13+C15+C17</f>
         <v>2.5</v>
       </c>
       <c r="D33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.38</v>
       </c>
       <c r="E33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5.6599999999999993</v>
       </c>
       <c r="F33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.72</v>
       </c>
       <c r="G33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4.7200000000000006</v>
       </c>
       <c r="H33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.32</v>
       </c>
       <c r="I33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.66</v>
       </c>
       <c r="J33">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7.09</v>
       </c>
     </row>
@@ -1237,35 +1238,35 @@
         <v>-3.15</v>
       </c>
       <c r="C34">
-        <f t="shared" ref="C34:J34" si="7">C19</f>
+        <f t="shared" ref="C34:J34" si="8">C19</f>
         <v>-2.64</v>
       </c>
       <c r="D34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.41</v>
       </c>
       <c r="E34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.8600000000000003</v>
       </c>
       <c r="F34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-3.81</v>
       </c>
       <c r="G34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-4.7300000000000004</v>
       </c>
       <c r="H34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-7.54</v>
       </c>
       <c r="I34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-6.82</v>
       </c>
       <c r="J34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-5.6</v>
       </c>
     </row>
@@ -1278,35 +1279,35 @@
         <v>0.66999999999999993</v>
       </c>
       <c r="C35">
-        <f t="shared" ref="C35:J35" si="8">C34 + C33</f>
+        <f t="shared" ref="C35:J35" si="9">C34 + C33</f>
         <v>-0.14000000000000012</v>
       </c>
       <c r="D35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-3.0000000000000249E-2</v>
       </c>
       <c r="E35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.79999999999999893</v>
       </c>
       <c r="F35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.9099999999999997</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-9.9999999999997868E-3</v>
       </c>
       <c r="H35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>-0.21999999999999975</v>
       </c>
       <c r="I35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.83999999999999986</v>
       </c>
       <c r="J35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1.4900000000000002</v>
       </c>
     </row>
